--- a/Report-export.xlsx
+++ b/Report-export.xlsx
@@ -12,15 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>이름</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
+  <si>
+    <t>PM</t>
   </si>
   <si>
     <t>프로젝트명</t>
@@ -44,29 +38,599 @@
     <t>비고</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>hlshin</t>
-  </si>
-  <si>
-    <t>신혜림</t>
-  </si>
-  <si>
-    <t>FVMS 개발</t>
+    <t>고병조</t>
+  </si>
+  <si>
+    <t>TPMS  HILS  검증</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>- RS4 차종(내수) 평가 진행
+   · 테스트케이스 작성
+     1) 테스트케이스 추가 개발 및 보완사항 검토 중
+         &gt; 사양서 확인 및 추가 테스트케이스 개발
+         &gt; 테스트 케이스 수정
+     2) 테스트 스크립트 검토
+- 장비 수리
+   · SW 캘리브레이션 작업 예정
+   · HW 관련 장비 업체 방문 및 수리 예정</t>
+  </si>
+  <si>
+    <t>- RS4 차종(내수) 평가 진행
+   · 테스트케이스 작성
+      1) 테스트케이스 추가 개발 및 보완사항 검토
+          &gt; 사양서 확인 및 추가 테스트케이스 개발: 악의 주행 12건, 고온환경 4건
+          &gt; 테스트 케이스 수정: 신규ID 학습 6건, 자동위치 학습 5건
+      2) 테스트 스크립트 검토
+          &gt; RS4사양 기준으로 테스트 스크립트 변경: 신규성적서 4건
+- 장비 수리
+· HW</t>
+  </si>
+  <si>
+    <t>- RS4 차종(내수) 평가 진행
+   · 환경구성
+       1) 제어기 수령 및 와이어링 구성
+    · 테스트 수행
+       1) 저압판단 기능 검증 
+        2) 저전압/과전압 고장 진단 검증</t>
+  </si>
+  <si>
+    <t>1) 장비 수리
+   - 에어컴프레셔 수리완료(모터, 에어필터, 흡기 필터 교체)
+   - 수리된지 얼마되지않아 장비에 무리되지 않는 테스트 항목부터 시운전 및 테스트 진행 필요</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>이창수</t>
+  </si>
+  <si>
+    <t>20년 1차 변속기 ASW 단위/통합 시험</t>
   </si>
   <si>
     <t>2020-08-14</t>
   </si>
   <si>
-    <t>-가나다라
-    :abcd</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>kkh</t>
+    <t>- 구조 기반 단위 시험
+     ∙ 구조 기반 단위 시험 결과 및 결함 보고서에 대한 피드백 요청
+- 구조 기반 통합 시험
+     ∙ 구조 기반 통합 시험 수행</t>
+  </si>
+  <si>
+    <t>- 구조 기반 단위 시험
+   ∙ 구조 기반 단위 시험 결과, 결함 보고서에 대한 피드백 반영 완료
+     ㄴ 단위 시험 결과서 양식을 오트론 양식으로 변경 완료
+- 구조 기반 통합 시험
+   ∙ 구조 기반 통합 시험 수행 완료
+     ㄴ시험 진행상황 (함수 커버리지: 276/276, 100%)
+     ㄴ시험 진행상황 (함수 호출 커버리지: 727/738, 98.5%)
+     ㄴ시험 진행상황 (통합 환경에서의 분기 커버리지 : 1</t>
+  </si>
+  <si>
+    <t>- 진행 계획 사항 없음</t>
+  </si>
+  <si>
+    <t>1) 없음</t>
+  </si>
+  <si>
+    <t>ADAS 검증 환경 구축</t>
+  </si>
+  <si>
+    <t>- 진행 예정 사항 없음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제안서 초안 작성 및 고객에게 전달 완료
+※ 프로젝트 제안 내용 관련 화상회의 완료 (8/14일 금, PM 02:20) with 최진하 책임, 이준영 선임, 신병철 선임
+   - HDM 지도 정보(정적 객체) 생성 자동화 환경 개발 내용 요구사항 확인
+     ㄴ HDM 지도 정보 추출 및 CarMaker에 입력 방안을 매뉴얼 수행을 통해 확인
+     ㄴ 확인된 입력 방안을 패턴화하여 자동화 스크립트를 설계 및 구현
+   - 차량 이</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제안서에 대한 고객 피드백 내용 대응</t>
+  </si>
+  <si>
+    <t>1) 제안 현황
+   - 프로젝트명 : HDP 작동사양 시험을 위한 도로 모델 및 자동화 환경 개발
+   - 프로젝트 일정 : 2020.10.12 ~ 2021.04.11 (6개월)
+   - 프로젝트 내용 :
+     ㄴ HDM 지도 정보(정적 객체) 생성 자동화 환경 개발
+     ㄴ 차량 이동 경로(동적 객체) 생성 자동화 환경 개발
+     ㄴ HDM 인터페이스(Ethernet 및 CAN-FD) 검증 환경 개발
+   - 총 투입 공수 :</t>
+  </si>
+  <si>
+    <t>ADAS 제어기 동적 검증 업무 수행 용역 3차</t>
+  </si>
+  <si>
+    <t>- 진행 계획 사항 없음
+* 프로젝트 업무 범위 협의 미팅 예정 (8/12일 수 AM 09:00, @오트론삼성)</t>
+  </si>
+  <si>
+    <t>- 업무 범위 협의를 통해 합의된 업무 범위 내로 프로젝트 제안서 작성 중
+* 프로젝트 업무 범위 협의 미팅 완료 (8/12일 수, AM 09:00 @오트론삼성) with 이상훈 책임, 이호연 선임, 김성규 팀장
+   - 프로젝트 수행 내용 및 범위 협의
+     ㄴ 실차 로깅 데이터를 기반으로 TC Builder가 생성하는 TC의 실행 커버리지 상향될 수 있도록 TC Builder의 TC 생성 기능 개선 수행 필요
+     ㄴ 1/2차 프로</t>
+  </si>
+  <si>
+    <t>- 업무 범위 협의를 통해 합의된 업무 범위 내로 프로젝트 제안서 작성 및 공유</t>
+  </si>
+  <si>
+    <t>ADAS(ADAS_DRV 및 ADAS_DRVⅡ) SW 검증</t>
+  </si>
+  <si>
+    <t>- ADAS_DRV 백투백 검증 자동화 스크립트 설계
+   · 산출물 정리 작업
+   · 스크립트 기반 백투백 시험 진행 및 결과 분석
+- ADAS_DRV 2 검증 시나리오 템플릿 설계
+   · HDP SW 코드 분석 작업
+   · 검증 시나리오 템플릿 작성
+- ADAS_DRV 2 통합 검증
+   · HDP SW 코드 분석 작업
+   · DRV 2 통합 환경 구축
+   · 요구사항 기반 통합 시험
+- 테스트 케이스 랜덤 데이</t>
+  </si>
+  <si>
+    <t>- ADAS_DRV 백투백 검증 자동화 스크립트 설계
+   · 산출물 정리 작업 완료
+     ㄴ 스크립트 매뉴얼 작성 완료
+   · 자동화 스크립트 기반 백투백 시험 결과 분석 중
+     * 결과 분석 중 식별된 결함 1건 분석 중 
+       (특정 변수 SCC_AccReqVal의 출력 타이밍이 SW와 모델이 일치하지 않음)
+- ADAS_DRV 2 검증 시나리오 템플릿 설계
+   · HDP SW 코드 분석 중
+   · 검증 시나</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 매주 목요일 진행 현황 및 이슈 관리를 위한 방문 (@남양 연구소 및 사무실)
+2) 자동화 스크립트프로토타입 개발 일정(~2/5 水) 기능 설계 이슈로 개발 보류
+3) 남양 연구소 GE룸 공사 관련, 회수장비 자율주행사업부 GE룸 내부 보관 중 (6/4 목 ~)
+4) 테스트 케이스 랜덤 값 생성 스크립트 설계 R&amp;R
+   - 10 M/D 선 투입 및 일정에 따라 업무 범위 협의 등을 통한 추가 공수 투입 예정
+   - 스크립트 </t>
+  </si>
+  <si>
+    <t>※ 용어 설명
+   · 체크리스트 : 기능 및 성능 검증 사양서
+   · VDI : Virtual Desktop Infrastructure
+   · 자동화 스크립트 : CT I/O 정보 입력 자동화 스크립트
+   · SIA (Situations Assessment) : 주행 상황 인지 모듈, 운전자 상태, 주행도로 상황 등
+   · TC : 테스트 케이스</t>
+  </si>
+  <si>
+    <t>오일펌프 모터제어기 ASPICE 인증</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 진행 사항 없음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 고아정공에 견적서 전달을 위한 업무 범위 협의 완료
+ - 고아정공에 전달하기 위한 견적서 검토 및 작성 완료</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 고객 요구사항 대응</t>
+  </si>
+  <si>
+    <t>주행상황 인지 SW 평가를 위한 프로세스 및 검증 플랫폼 개발 과제 3차년도</t>
+  </si>
+  <si>
+    <t>- 정량적 목표 관리
+   ∙ 타기관 정량적 목표 진행 상황 파악
+- 시험 및 인증 절차 수립
+   ∙ 예정 사항 없음 
+- 평가 지표 플랫폼 반영 
+   ∙ 라이브러리 수정 개발 진행
+     ㄴ 라이브러리 ver 2.0 피드백 반영
+- 평가 지표 고도화 진행 
+   ∙ 가중치 확정을 위한 추가 시뮬레이션 진행
+   ∙ Mass data 시뮬레이션 자동화 도구 개발
+※ 중간 진도 점검 보고 리뷰 회의 예정(8/12 PM</t>
+  </si>
+  <si>
+    <t>- 정량적 목표 관리
+   ∙ 타기관 정량적 목표 진행 상황 파악
+     ㄴ 주관기관의 취득 영상 및 센서 data 검토 중
+- 시험 및 인증 절차 수립
+   ∙ 예정 사항 없음 
+- 평가 지표 플랫폼 반영 
+   ∙ 라이브러리 수정 개발 중
+     ㄴ 라이브러리 ver 2.0 피드백 반영 중
+- 평가 지표 고도화 진행 
+   ∙ 가중치 확정을 위한 추가 시뮬레이션 수행 중
+   ∙ Mass data 시뮬레이션 자동화 도</t>
+  </si>
+  <si>
+    <t>- 정량적 목표 관리
+   ∙ 타기관 정량적 목표 진행 상황 파악
+   ∙ 정량적 목표 설명서 작성 (with ETRI, KATECH)
+- 시험 및 인증 절차 수립
+   ∙ 예정 사항 없음 
+- 평가 지표 플랫폼 반영 
+   ∙ 라이브러리 수정 개발 진행
+     ㄴ 라이브러리 ver 2.0 피드백 반영
+- 평가 지표 고도화 진행 
+   ∙ 가중치 확정을 위한 추가 시뮬레이션 진행
+   ∙ Mass data 시뮬레이션 자동화</t>
+  </si>
+  <si>
+    <t>1) 3차년도 과제 수행 목표 및 방향 수립
+   - 정량적 목표 관리
+     ∙ 참여 기관 별 정량적 목표 달성 현황 수렴
+     ∙ 정량적 목표 설명서 작성
+     ∙ 평가시나리오 120건 추가 작성
+   - 시험 및 인증 절차 수립
+     ∙ 시험 규격 표준화 관련 자료 검토 및 전달 (TTA)
+     ∙ 플랫폼 관련 공인성적서 발급을 위한 기관 확보
+     ∙ 시험 의뢰서 및 절차서 작성
+   - 평가 지표 플랫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※ 용어 설명
+   · IITP : 정보통신기획평가원
+</t>
+  </si>
+  <si>
+    <t>지능형 차량서비스를 위한 고신뢰 적응형 전장 SW 플랫폼 기술 개발(3차년도)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 3차년도 과제 수행
+   · 진행 예정 사항 없음
+- ISO26262 기능 안전 패키지 관리
+   · 국제 표준 기준 SW 안전 요구 사양 분석 및 서비스 매칭
+   · CI, SN, CT RTV 검증 도구를 활용한 검증 환경 이전
+- SW 설계 문서 검사
+   · 코딩 룰 및 RTE 검사 결과 보고서 리뷰
+- 동적 검증 (단위 및 통합 시험)
+   · 단위 시험 수행
+   · 통합 시험을 위한 테스트 앱 개발
+   · </t>
+  </si>
+  <si>
+    <t>- 3차년도 과제 수행
+   · 진행 사항 없음
+- ISO26262 기능 안전 패키지 관리
+   · CI, SN, CT RTV 검증 도구를 활용한 검증 환경 이전 중
+     ㄴ 검증 환경 이전 중 발생되는 이슈에 대해 사업 지원팀에 해결 방안 문의 중
+- SW 설계 문서 검사
+   · 코딩 룰 및 RTE 검사 결과 보고서 리뷰 중
+     ㄴ 코딩 룰 검사 결과 보고서 피드백 수령 완료 (8/11 화)
+     ㄴ 설계 문서 검사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 3차년도 과제 수행
+   · 진행 계획 사항 없음
+- ISO26262 기능 안전 패키지 관리
+   · 국제 표준 기준 SW 안전 요구 사양 분석 및 서비스 매칭
+   · CI, SN, CT RTV 검증 도구를 활용한 검증 환경 이전
+- SW 설계 문서 검사
+   · 코딩 룰 및 RTE 검사 결과 보고서 리뷰
+- 동적 검증 (단위 및 통합 시험)
+   · 단위 시험 수행
+   · 통합 시험을 위한 테스트 앱 개발
+   · </t>
+  </si>
+  <si>
+    <t>※ 용어 설명
+   · IITP : 정보통신기획평가원</t>
+  </si>
+  <si>
+    <t>이동섭</t>
+  </si>
+  <si>
+    <t>통합바디 HILS 검증</t>
+  </si>
+  <si>
+    <t>- JK1 차종 통합 바디 Pilot 1차 평가 
+    · 평가 시작 
+      1) 제어로직 기능 평가 
+      2) 전원 기능 
+      3) Sleep&amp;Wakeup 기능 
+- JW 차종 통합바디 Proto 1차 평가 진행 
+    · 평가 시작 
+      1) 제어로직 기능평가 
+      2) 전원기능 
+      3) TDP 평가 
+      4) Sleep&amp;Wakeup 기능 
+- 기능 평가용 TDP 공통 Test</t>
+  </si>
+  <si>
+    <t>- JK1 차종 통합 바디 Pilot 1차 평가
+    · 평가 시작
+      1) 제어로직 기능 평가 (70% 진행 중)
+      2) 전원 기능 (80% 진행중)
+      3) Sleep&amp;Wakeup 기능 (70% 진행중)
+- JW 차종 통합바디 Proto 1차 평가 진행
+    · 평가 시작
+      1) 제어로직 기능평가 (95%)
+      2) 전원기능 (90%)
+      3) TDP 평가 (80%)
+      4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- NE 차종 통합 바디 Pilot 1차 평가
+    · 환경 구성
+      1) CAN Network 환경 구성
+      2) WiringRackList 작성
+- JK1 차종 통합 바디 Pilot 1차 평가
+    · 평가 시작
+      1) 제어로직 기능 평가
+      2) 전원 기능
+      3) Sleep&amp;Wakeup 기능
+      4) TDP 기능 평가
+- JW 차종 통합바디 Proto 1차 평가 진행
+    · </t>
+  </si>
+  <si>
+    <t>1) HILS 장비 이전 관련 
+   - 13년도 HILS 장비 HKMC 요청으로 남양연구소 이전 완료 (7/10 金)
+   - 조직 개편으로 인한 해당 프로젝트 시현 예정 (To. HKMC 본부장)
+   - JK1 차종 [13년도 장비] 평가 남양 연구소에서 진행 (7/20 ~ 8/28) -&gt; 이동섭 선임, 고형주 전임 검증 진행 중
+2) 기능 평가용 TDP 수행을 위한 HILS 장비(MOBIS) 오트론으로 이전 완료
+3) JK1 차종</t>
+  </si>
+  <si>
+    <t>※ 용어 설명
+TDP 기능 : HKMC 실차 평가 용 테스트케이스
+MFSW(Multi Function Switch) : 차량 외부 램프(Tail, HeadLamp Low etc) 동작을 위한 스위치 
+SAU (Smart Approach Unlock) : 차량 외부에서 Fob(Smart Key)를 가진 운전자를 인식하여 Unlock이 되는 동작
+Smart Power Tailgate(SarmtHandFreeTailgate)) : Fob(Smart K</t>
+  </si>
+  <si>
+    <t>최인석</t>
+  </si>
+  <si>
+    <t>ACU Qualification 시험</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 없음</t>
+  </si>
+  <si>
+    <t>1) 투입 예정 인원 : 김유림 선임, 이정현 선임, 범지선 전임, 송원영, 박시환</t>
+  </si>
+  <si>
+    <t>OMU Qualification 시험</t>
+  </si>
+  <si>
+    <t>1) 9~10월 착수 예정</t>
+  </si>
+  <si>
+    <t>힐스 - McLaren CMS Software 단위/통합/HILS 검증 서비스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- MCU
+   · Pre-Final Test 
+      1) Script Review 
+      2) Testing 
+- SOC
+   · Pre-Final Test
+      1) 환경 구성
+      2) Testing </t>
+  </si>
+  <si>
+    <t>- MCU
+   · Pre-Final Test 
+      1) Script Review (진행 중)
+- SOC
+   · Pre-Final Test
+      1) 환경 구성 (완료)
+      2) Testing (완료)</t>
+  </si>
+  <si>
+    <t>- MCU
+   · Pre-Final Test (대기)
+   · 인수 인계</t>
+  </si>
+  <si>
+    <t>1) MCU Script Review 관련  
+   - Review 방식에 대한 조율 실패로 MCU QT Part Hold 통보 예정
+2) SOC 환경 구성 관련
+   - Flashing Error 이슈 -&gt; SMRK 방문 후, JTAG 장비 활용하여 해결
+3) 인수 인계 관련 
+   - 이정현, 김유림, 범지선 모비스 과제 투입을 위한 인수 인계 진행 예정
+# 업무 분장 
+   - MCU : 이동우, 최교순, 이정현, 김호영, (김유림</t>
+  </si>
+  <si>
+    <t># 일정
+-MCU
+ASIL : TCSpec (완료), Script (완료), Testing (완료)
+QM : TCSpec (완료), Script (진행 중), Testing (완료)
+Regression : TCSpec, Script, Testing
+-SOC
+QM : TCSpec (완료), Script (완료), Testing (완료)
+Regression : TCSpec, Script, Testing</t>
+  </si>
+  <si>
+    <t>전익태</t>
+  </si>
+  <si>
+    <t>MDPS  HILS  검증</t>
+  </si>
+  <si>
+    <t>"- NE-EV-R(Proto) 차종
+   · 테스트 수행 
+      1) LOAM - Fail 재수행
+      2) DMS - Fail 재수행
+   · 결과분석
+      1) LOAM 100% 진행
+      2) CAN(SAS) 100% 완료
+   · 이슈정리
+- RS4-R(Proto) 차종
+   · 문의사항 대응"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- NE-EV-R(Proto) 차종
+   · 테스트 수행 
+      1) LOAM - Fail 재수행
+      2) DMS - Fail 재수행
+   · 결과분석
+      1) LOAM [100% 완]
+      2) CAN(SAS)[100% 완]
+      3) DMS [47.3% 진행]
+   · 이슈정리
+- RWS-R 차종
+   · 문의사항대응
+      1)RWS SW Update 수행 후 이슈 8번 테스트  +</t>
+  </si>
+  <si>
+    <t>"- NE-EV-R(Proto) 차종
+   · 테스트 수행 
+      1) LOAM - Fail 재수행
+      2) DMS - Fail 재수행
+   · 결과분석
+      1) DMS 100% 완료
+      2) 진단통싱 100% 완료
+   · 이슈정리
+   · 차종완료보고서 작성
+- RWS-R 차종
+   · 문의사항대응"</t>
+  </si>
+  <si>
+    <t>"1. RWS, MQ4-HEV SW Update 수행
+2. 8월 14일 금요일 오후 본사 세미나 참석, 발표로 인한 본사 근무
+3. 8월 17일 월요일 임시공유일로 인한 휴무
+차주 투입 일정
+ - 전익태 : 화~목(08/21 연차)
+ - 정하영 : 수~금(08/17 연차)"</t>
+  </si>
+  <si>
+    <t>"C-Type
+ -  BC3 : 만도(1~4월 첫째주)
+ -  US4 : 만도(9~12월)
+ - NX4-HEV 개선평가 : 만도(4월 3주 ~ 5/8)
+ - BC3 개선평가 : 만도(~5/15)
+R-Type
+ - RG3-EV : 만도(1~5월)
+ - NE : 모비스(6~9월)
+ - RWS 개선평가 : 만도(일정 미정)
+ - RS4 : 모비스(10~12월)
+※ HDP : Highway Driving Pilot
+ - 자율주행 lv</t>
+  </si>
+  <si>
+    <t>신재욱</t>
+  </si>
+  <si>
+    <t>ACU HILS  검증</t>
+  </si>
+  <si>
+    <t>- NQ5 자동화 검증   
+    · 환경구성
+       &gt; 전개로직 장비 검증 환경 셋업
+- NE1 2차 단품 검증   
+  · 환경구성
+       &gt; 검증 항목 협의
+       &gt; 검증 환경 셋업 및 검증 착수
+       &gt; 사양 확인 및 산출물 양식 사전 검토</t>
+  </si>
+  <si>
+    <t>- NQ5 자동화 검증   
+    · 환경구성
+       &gt; 전개로직 장비 검증 환경 셋업 완료
+       &gt; 산출물 양식 최신화 완료
+       &gt; 고장진단 산출물 작성 완료
+- NE1 2차 단품 검증   
+  · 환경구성
+       &gt; 검증 항목 협의 미진행</t>
+  </si>
+  <si>
+    <t>- NQ5 자동화 검증   
+    · 테스트 수행(Advanced)
+       &gt; Driver side crash EDR 기록 테스트  
+       &gt; Driver side crash 충돌 기록 테스트 
+       &gt; Passenger side crash EDR 기록 테스트  
+       &gt; Passenger side crash 충돌 기록 테스트 
+       &gt; Rollover crash EDR 기록 테스트
+       &gt; Rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) NQ5 자동화 검증
+        - 고장진단
+           &gt; 고장진단 자동화 검증 산출물 작성 진행 중(8/14 中 완료예정)
+        - 전개로직
+           &gt; 충돌 파라미터 수정으로 인한 Front crash 검증 지연(파라미터 수정 후 검증 진행)
+           &gt; Engineering Side 기록 소거 불가 문제로 인해 해당 항목 검증 지연(기록 소거 S/W 전달받은 후 검증 진행)
+2) NE1 </t>
+  </si>
+  <si>
+    <t>※ NQ5 : 스포티지 풀체인지
+※ 협력사 : KMI System(고장진단 시뮬레이터)/ 퓨전정보기술(전개로직 시뮬레이터)</t>
+  </si>
+  <si>
+    <t>김대엽</t>
+  </si>
+  <si>
+    <t>AVN SW 검증 자동화 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 기능 검증 (5차종 자동화 운영)
+   · 자동 TC 업데이트 (주기적 업무)
+      1) 신규 TC 구현
+      2) 기존 TC 수정
+   · 자동화 운영 차종 및 결과 분석
+- Bluetooth 호환성 검증 (비주기적 업무)
+   · 자동 TC 업데이트
+      1) 신규 TC 구현
+      2) 기존 TC 수정
+   · 자동화 운영 차종 및 결과 분석
+- VCRM 2.0 검증 (비주기적 업무)
+   · 자동 TC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 기능 검증 (5차종 자동화 운영)
+   · 자동 TC 업데이트 (주기적 업무)
+      1) 신규 TC 구현 : WIDE 5개 구현
+      2) 기존 TC 수정 : WIDE 50개 수정
+      3) 담당자별 현황 (구현대상 / 구현완료 / 구현예정 / 수정 TC / 신규 TC)   
+         &gt; 김태완 (Climate, Camera)
+            &gt; Climate : 117 / 16 / 101 / 0 / 0
+  </t>
+  </si>
+  <si>
+    <t>1) New Hardware(돌핀+) AVN SW 업데이트 시 이슈 사항
+   - AVN 세트 부족으로 해당 차종 및 향지의 세트에 다른 차종 및 향지의 소프트웨어를 올리는 경우가 빈번하게 발생 
+   - 해당 차종의 AVN 세트와 일치하지 않는 차종의 소프트웨어 업데이트 시, 향지를 일치시켜도 강제 업데이트(FWDN) 후 통합 업데이트(USB 업데이트) 진행 시 300 에러코드(네트워크 에러) 발생
+   - New Hardware(돌핀+) 이전의</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>ICU HILS  검증</t>
+  </si>
+  <si>
+    <t>- 과거차 테스트 케이스 개발   
+   · HMC 요구사항 TC 개발</t>
+  </si>
+  <si>
+    <t>- 과거차 테스트 케이스 개발  
+   · IGN On 시 Front Fog Lamp 블링킹 현상  
+   · ICU 과전압 후 정상전압 복귀시 CAN 미 복구
+   · CAN Sleep 진입 전후 Wakeup SW 인가 후 재 진입 동작성 평가 
+   · Lamp 단선 후 점등 인가 시 팝업 현상</t>
+  </si>
+  <si>
+    <t>1) ICU 공수 관련 이슈
+   - 2개의 과제(ICU 악의조건검증과제, ICU 실차자동화검증과제) 중 
+     ICU 실차자동화검증과제 공수 제외
+   - ICU 악의조건검증과제 9.75M/Year (2월~10월) -&gt; 9M/Year (3월~11월)로 
+     재산정 및 견적서 요청 (1/29)
+   - 김현우 선임 : ICU HILS 검증 과제 선진행 예정 (2월~10월)
+   - 김유림 선임 : ICU HILS 검증 과체 철수(2월</t>
+  </si>
+  <si>
+    <t>※ 용어 설명
+* DTC : 램프 출력 중 Ground Short 발생 시 고장 코드 출력 여부 확인 항목
+* Multi-Channel Short : 램프 출력 중 Ground Short 발생 시 램프 출력 차단 확인 항목 
+* 전압변동 : 시동 전압 파형과 같은 다양한 전압 흐름 인가 시 램프 정상 출력 및 DTC 미출력 확인 항목
+* 과거차 결함 평가 : 과거 확인 된 결함 재확인 항목
+* 암전류 수동 측정 : 멀티미터를 사용하여 암전류 상</t>
   </si>
   <si>
     <t>김태호</t>
@@ -118,12 +682,6 @@
         : C</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>twinrain</t>
-  </si>
-  <si>
     <t>이창우</t>
   </si>
   <si>
@@ -136,11 +694,11 @@
   <si>
     <t xml:space="preserve">- 변경부분 파악 이슈 관련 수행 방안/범위 재검토
    · 변경 전후 코드 레벨의 비교 결과 체크 : 미확인 (고객 담당자 휴가)
-   · MV 백투백 테스트 방식 체크 (with MS팀) : 문제없음
+   · MV 백투백 테스트 활용가능 여부 체크 (with MS팀) : 문제없음
       &gt; 구버전에서 대상커버리지 달성한 In/Output 기반 신버전에서 확인
 - MV 모델 동적검증 공수 산정 기준 및 체크 방법 검토
    · 작년 SCU 동적검증 수행 기반 : Decision 약 500개 / 1MM
-   · MV </t>
+   </t>
   </si>
   <si>
     <t>- 수행 방안/범위 재협의
@@ -167,16 +725,10 @@
   - 자료공유 : 오트론직접방문 필요</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>SCU 모델 동적 검증</t>
   </si>
   <si>
     <t>- 없음</t>
-  </si>
-  <si>
-    <t>1) 없음</t>
   </si>
   <si>
     <t xml:space="preserve"># 참고
@@ -186,10 +738,168 @@
  - 지난 산출물 대비 추적성 보완 </t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>ysyoun</t>
+    <t>Management - McLaren CMS Software 단위/통합/HILS 검증 서비스</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 고객 협의 (with SMR)
+   · Daily CC 진행 : 진행현황 공유 및 이슈 협의 (월~목, 4회)
+   · Management 협의 : MCU QT Script Review 관련 정리 후 논의 필요 </t>
+  </si>
+  <si>
+    <t>- 고객 협의 (with SMR)
+   · Daily CC 진행 (16:30) : 진행현황 공유 및 이슈 협의
+   · Management 협의 : 비용 지급 및 일정 협의</t>
+  </si>
+  <si>
+    <t>1) Management 협의 상황 (지난주와 동일)
+   - 비용 관련
+     &gt; 1st 계약 (잔여 20%): 잔금은 pre-final 아닌 final 완료 후 지급가능(SMRG)
+     &gt; 2nd 계약 (잔여 60%) : pre-final 완료 후 산출물 상황에 따라 지급 협의
+        * 기 발행 40% 지급일정 : 8/14 (금)
+   - 일정 관련
+     &gt; pre-final : MCU QT에 대한 SMR 리뷰 일정 협의</t>
+  </si>
+  <si>
+    <t># 1차 계약 (MM) : 59.3
+   - 단위/통합 : 26.3
+   - HILS : 33
+# 2차 계약 (MM) : 31.3
+   - Part 2 (management): 4.4
+   - Part 6 (SW) : 18
+   - Part 8 (supporting) : 8.9</t>
+  </si>
+  <si>
+    <t>Navi SW 3자검증 1차</t>
+  </si>
+  <si>
+    <t>- 수행 준비
+   · 수행계획서 작성 및 인원/장비 점검
+   · 검증 환경 세팅 상황 점검 (to 연구소)</t>
+  </si>
+  <si>
+    <t>- 수행 내용 협의
+   · COVER : 도구 도입 결정. 슈어는 환경세팅 외에 수행공수는 없음
+   · 통합시험 : 고객 제공 시나리오 중 공수 내 수행 가능항목 협의 후 진행
+- 검증 환경 세팅
+   · 진행 현황 점검 (to 연구소) : 플랫폼 3개중 1개 완료
+   · RTV 세팅 상황에 따른 반입 노트북 사양 체크 (저장공간 등)</t>
+  </si>
+  <si>
+    <t>1) 착수지연 : 8/18 =&gt; 빠르면 8/20(목) 늦어도 8/24(월)</t>
+  </si>
+  <si>
+    <t># 총 4단계 제안 (우선 1단계 수행)
+# 1단계 검증대상 : 플랫폼 3개, LOC 약 7만
+  - 고급형 5/6세대
+  - 표준형 5세대 (WIDE 포함)</t>
+  </si>
+  <si>
+    <t>단위/통합 - McLaren CMS Software 단위/통합/HILS 검증 서비스</t>
+  </si>
+  <si>
+    <t>- SoC
+   · 단위시험
+     1) Req기반 Test 관련 고객 피드백 대응 (완료)
+     2) Pre-Final Test (004.003.010 ver) : Report 전달 및 고객 대응
+   · 통합시험
+     1) Req기반 Test 관련 고객 피드백 대응 (완료)
+     2) Pre-Final Test (004.003.010 ver) : Report 전달 및 고객 대응
+- 수행 모드 변경 (Final Test 대응을</t>
+  </si>
+  <si>
+    <t>- SoC
+   · 단위시험
+     1) Req기반 Test 관련 고객 피드백 대응 
+         &gt; P0 &amp; P2 (함수 244) : Test Spec/Script (완료)
+         &gt; P1 (함수 196) : Test Spec(완료), Script (진행중)
+     2) Pre-Final Test (004.003.010 ver) : Test Report 전달대기
+   · 통합시험
+     1) Req기반 Test 관련 고객</t>
+  </si>
+  <si>
+    <t>1) Pre-Final Test 는 완료. Management 협의 상황에 따라 전달 대기중
+2) 여름휴가 : 장정욱(8/11~8/14), 김민수(8/13~8/19), 문종모(8/18~8/21)
+# 업무 분장 
+   - 장정욱(Test manager), 원영채(통역)
+   - 협력사 : 김민수(단위), 문종모(통합)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 일정 (예상)
+- pre-final test : MCU QT 상황에 따라 대응
+- final test : 시작일협의중 (9월중순, 10월?)
+</t>
+  </si>
+  <si>
+    <t>송우람</t>
+  </si>
+  <si>
+    <t>MDPS Qualification 시험</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 환경 셋업
+   · 출입등록
+      1) 차주 월요일 PC 세팅(조성환 선임, 이지은 전임)
+   · 소스코드 확인
+      1) 토크센서 모듈 확인, 분석 
+           &gt; SADS, SUDS에서 관련 모듈 확인 후 소스코드 확인
+   · CT 환경설정
+      1) MDPS 빌드환경 확인 
+      2) CT Tool Chain 진행
+ - SRS 리뷰
+   · SRS 리뷰 일정 변경 
+      1) 기존 사</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 환경 셋업
+   · 출입등록
+      1) PC 세팅 완료(IP 세팅, 보안, CT, 소스코드)
+      2) PC 반출
+          &gt; 사업지원팀 출입 불가 : 코로나 19로 인한 장기출입등록자만 출입 가능, 이외 일체 불가능
+          &gt; PC 반출하여 슈어소프트 본사에서 툴체인 설정하기로 협의, 금요일 오전 PC 반출
+   · CT 환경설정
+      1) MDPS 빌드환경 확인
+           &gt; Taski</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 환경 셋업
+   · 출입등록
+      1) PC 재반입
+          &gt; 툴체인 설정 된 PC 재반입 예정(화요일 오후)
+   · CT 환경설정
+      1) CT 툴체인
+           &gt; 툴체인 및 컴파일 플래그 전파
+           &gt; 패치 파일(Linking Error 관련) 설치
+ - 테스트 스펙 개발
+   · SRS 기반으로 테스트 스펙 개발
+      1) 토크센서 모듈 완료
+      2) 모비스 송</t>
+  </si>
+  <si>
+    <t>김용성</t>
+  </si>
+  <si>
+    <t>FVMS 개발</t>
+  </si>
+  <si>
+    <t>2020-08-18-오후-03:03</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>7474747
+474
+74
+7
+47
+4
+7</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>윤영산</t>
@@ -236,6 +946,151 @@
       &gt; 정합성 검증
       &gt; Min/Max 검증
    · 최종 보고 및 설명회 (~9/30, 예정)</t>
+  </si>
+  <si>
+    <t>ASPICE Prelevel1 대응 트랜시스 모델검증</t>
+  </si>
+  <si>
+    <t>- 2nd iteration (Step 1)
+   · Kugler Maag 컨설팅
+      &gt; WBS 일정 및 수행 전략 협의
+   · SWDD
+      &gt; Model Description 작성 
+   · SWUV
+      &gt; SWUV Test Case Description 작성</t>
+  </si>
+  <si>
+    <t>- 2nd iteration (Step 1)
+   · SWE.3 - SWDD (진행중)
+      &gt; Develop layer (수행완료 모듈: 4 / 전체 모듈: 15)
+      &gt; Develop unit (수행완료 모듈: 4 / 전체 모듈: 15)
+   · SWE.4 - SWUV (진행중)
+      &gt; Run static analysis (수행완료 모듈: 15 / 전체 모듈: 15)</t>
+  </si>
+  <si>
+    <t>- 2nd iteration (Step 1)
+   · SWE.3 - SWDD
+      &gt; Develop layer
+      &gt; Develop unit
+- SW Quality impovement
+   · MAAB 가이드라인 작성 (요청사항으로 인해 선수행)</t>
+  </si>
+  <si>
+    <t>1) 없음
+*2nd iteration 수행 모델 R&amp;R
+   - Step 1: ILIN8_HW, ILIN8_CAN, SCO8, MS8, SS8, PH, PrsCtrl, DCIn, DCtype, DCPhase, DCPrsCmp, LPC, OUT8, EOP8, CANTx8 (15개)
+      &gt; 김기만 수석: PH, PrsCtrl
+      &gt; 이상재 전임: ILin8_HW, DCIn, DcPrsCmp
+      &gt; 박지훈 전임: OUT8, EO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#일정요약
+1) Master Model (4/13 ~ 6/29) - 모델: 6개: 완료
+2) VW Model (7/13 ~ 10/31) - 모델 :23개
+   - Step1 (7/13 ~ 8/26) - 모델: 15개
+      &gt; SWE.3 (SWDD) - 진행중
+         (1) Develop layer
+         (2) Develop unit
+         (3) Establish traceability to SWAD
+  </t>
+  </si>
+  <si>
+    <t>ASPICE 대응 트랜시스 시스템검증</t>
+  </si>
+  <si>
+    <t>- 형상괸리 (PTC)
+   · SyRS 3차 수정 업데이트
+   · 추적성 관리
+- SYS2 (System Requirement Specification)
+   · 고객 요구사항 → 시스템 요구사항 분석
+      &gt; CRA ↔ SyRS ID mapping 및 내용 분석
+      &gt; SyRS 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- SYS2 (System Requirement Specification)
+   · 고객 요구사항 분석 (완료)
+      &gt; CRA - Supplier analysis status 검토 및 수정 (18개)
+   · 고객 요구사항 → 시스템 요구사항 개발 (완료)
+      &gt; CRA ↔ SyRS ID mapping
+      &gt; SyRS CRA Checklist 기반 작성 (10개 개발, 누적 요구사항:10개)
+   · PTC Upload </t>
+  </si>
+  <si>
+    <t>- SYS2 (System Requirement Specification)
+   · CRA → SyRS 개발
+   · SyRS 수정 및 개선
+      &gt; SyRS 양식 변경
+   · PTC Upload</t>
+  </si>
+  <si>
+    <t>1) WBS 미확정
+   - 슈어소프트 예상 역할: 시스템 개발(O), 시스템 검증(X)
+   - 사유: 시스템 검증 시, 인터뷰에 참석 필요
+   - 현재 수행 역할: SyRS 업데이트, PTC 업로드 (향후 WBS 확정 시 변경 예정)
+*TCU 시스템 개발 R&amp;R
+   - 금형 개발 및 생산: 현대트랜시스
+   - BSW 개발: VT (Vitesco)
+   - ASW 개발: 현대트랜시스 (with 현대오트론, 슈어소프트)
+   - A-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#일정요약 (초안)
+   - 제어사양 분석 - 진행중
+   - Sys2 (SyRS) - 진행중
+      &gt; CRA 분석
+      &gt; CRA → SyRS 개발
+      &gt; SyRS 수정 및 개선
+      &gt; PTC Upload
+   - Sys3 (SyAD)
+   - Sys4 (SyIT)
+      &gt; TestCase 추적 관리
+      &gt; HILs 검증
+   - Sys5 (SyQT)
+      &gt; TestCase 추적 관리+</t>
+  </si>
+  <si>
+    <t>FCA향 대응 트랜시스 모델검증</t>
+  </si>
+  <si>
+    <t>- 인력 투입 (8/10)
+   · 이유진 전임, 최종훈 전임</t>
+  </si>
+  <si>
+    <t>- 검증환경 구축
+   · AD계정 설정 (완료)
+      &gt; VCDM 설치
+      &gt; PTC 설치
+      &gt; Simulink 설치
+- VW Model Support
+   · SWE.3 - SWDD (진행중)
+      &gt; Develop layer (수행완료 모듈: 0 / 전체 모듈: 2)
+      &gt; Develop unit (수행완료 모듈: 0 / 전체 모듈: 2)</t>
+  </si>
+  <si>
+    <t>- VW Model Support
+   · SWE.3 - SWDD
+      &gt; Develop layer
+      &gt; Develop unit</t>
+  </si>
+  <si>
+    <t>1) FCA A-SPICE 프로세스에는 당분간 현대트랜시스에서 진행 → VW A-SPICE 모델검증 업무 할당하여 진행 예정
+*수행 항목 (VW Model Support)
+   - Step 1: MS8, LPC, SS8, ILin8_CAN (4개)
+      &gt; 이유진 전임: MS8, LPC
+      &gt; 최종훈 전임: SS8, ILin8_CAN</t>
+  </si>
+  <si>
+    <t>#일정요약
+1) VW Model Support (8/10 ~ 10/31) - 모델: 4개
+   - SWE.3 (SWDD) - 진행중
+       &gt; Develop layer
+       &gt; Develop unit
+       &gt;  Establish traceability to SWAD
+       &gt;  Establish traceability to SWRA
+       &gt;  Review
+       &gt;  Generate SWDD
+   -</t>
   </si>
 </sst>
 </file>
@@ -311,42 +1166,30 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -364,118 +1207,692 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Report-export.xlsx
+++ b/Report-export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="166">
   <si>
     <t>PM</t>
   </si>
@@ -379,6 +379,62 @@
 MFSW(Multi Function Switch) : 차량 외부 램프(Tail, HeadLamp Low etc) 동작을 위한 스위치 
 SAU (Smart Approach Unlock) : 차량 외부에서 Fob(Smart Key)를 가진 운전자를 인식하여 Unlock이 되는 동작
 Smart Power Tailgate(SarmtHandFreeTailgate)) : Fob(Smart K</t>
+  </si>
+  <si>
+    <t>김혜윤</t>
+  </si>
+  <si>
+    <t>FVMS 개발</t>
+  </si>
+  <si>
+    <t>2020-08-18-오후-04:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">테 스 트
+테  스  트
+테    스     트
+테
+스
+트
+테테
+스스
+트트
+</t>
+  </si>
+  <si>
+    <t>&lt;마스터페이지&gt;
+권한을 부여할 수 있는 마스터 페이지 만들기
+구글시트로 넘어가는 URL 넣기 -&gt;DB로변경
+권한시트 만들기-&gt;DB로 변경
+등록되어있는 멤버리스트 뜨고, 이름 누르면 수정페이지로 이동
+멤버등록 기능
+멤버삭제 기능
+멤버수정 기능
+멤버조회 기능
+등록페이지 뒤로가기 시, 알림창띄우기
+&lt;프로젝트&gt;
+생성페이지 만들기
+작성페이지 만들기
+조회페이지 만들기
+작성페이지 뒤로가기 시, 알림창띄우기
+생성,수정 페이지 중 PM 입력란</t>
+  </si>
+  <si>
+    <t>7 4 74747
+4 74
+74
+7
+47
+4
+7
+456415645646                   6545645656456</t>
+  </si>
+  <si>
+    <t>123
+1 1 1 1 1 
+ 2 2 2 2 2
+123 123 123
+55 55 44 321 1232213</t>
   </si>
   <si>
     <t>최인석</t>
@@ -876,30 +932,6 @@
    · SRS 기반으로 테스트 스펙 개발
       1) 토크센서 모듈 완료
       2) 모비스 송</t>
-  </si>
-  <si>
-    <t>김용성</t>
-  </si>
-  <si>
-    <t>FVMS 개발</t>
-  </si>
-  <si>
-    <t>2020-08-18-오후-03:03</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>7474747
-474
-74
-7
-47
-4
-7</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
   <si>
     <t>윤영산</t>
@@ -1409,45 +1441,45 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1455,33 +1487,33 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -1513,7 +1545,7 @@
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -1539,7 +1571,7 @@
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>87</v>
@@ -1548,59 +1580,59 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
         <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>101</v>
@@ -1637,262 +1669,262 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
         <v>132</v>
       </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
-        <v>138</v>
-      </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
